--- a/natmiOut/OldD2/LR-pairs_lrc2p/Dcn-Tlr4.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Dcn-Tlr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Tlr4</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.9310092936953</v>
+        <v>6.231317499999999</v>
       </c>
       <c r="H2">
-        <v>5.9310092936953</v>
+        <v>12.462635</v>
       </c>
       <c r="I2">
-        <v>0.006035667644760753</v>
+        <v>0.005876074078676659</v>
       </c>
       <c r="J2">
-        <v>0.006035667644760753</v>
+        <v>0.003958027426185814</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.92619761844537</v>
+        <v>7.930325</v>
       </c>
       <c r="N2">
-        <v>7.92619761844537</v>
+        <v>15.86065</v>
       </c>
       <c r="O2">
-        <v>0.10555607760007</v>
+        <v>0.1037243007717083</v>
       </c>
       <c r="P2">
-        <v>0.10555607760007</v>
+        <v>0.07315997304409949</v>
       </c>
       <c r="Q2">
-        <v>47.01035173866504</v>
+        <v>49.4163729531875</v>
       </c>
       <c r="R2">
-        <v>47.01035173866504</v>
+        <v>197.66549181275</v>
       </c>
       <c r="S2">
-        <v>0.0006371014022785976</v>
+        <v>0.0006094916750934968</v>
       </c>
       <c r="T2">
-        <v>0.0006371014022785976</v>
+        <v>0.0002895691798075607</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.9310092936953</v>
+        <v>6.231317499999999</v>
       </c>
       <c r="H3">
-        <v>5.9310092936953</v>
+        <v>12.462635</v>
       </c>
       <c r="I3">
-        <v>0.006035667644760753</v>
+        <v>0.005876074078676659</v>
       </c>
       <c r="J3">
-        <v>0.006035667644760753</v>
+        <v>0.003958027426185814</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.05266536845071</v>
+        <v>6.598259666666666</v>
       </c>
       <c r="N3">
-        <v>6.05266536845071</v>
+        <v>19.794779</v>
       </c>
       <c r="O3">
-        <v>0.08060556222224891</v>
+        <v>0.08630161692429571</v>
       </c>
       <c r="P3">
-        <v>0.08060556222224891</v>
+        <v>0.09130681895470279</v>
       </c>
       <c r="Q3">
-        <v>35.89841455190885</v>
+        <v>41.11585093044416</v>
       </c>
       <c r="R3">
-        <v>35.89841455190885</v>
+        <v>246.695105582665</v>
       </c>
       <c r="S3">
-        <v>0.0004865083838925774</v>
+        <v>0.0005071146941567369</v>
       </c>
       <c r="T3">
-        <v>0.0004865083838925774</v>
+        <v>0.0003613948936204964</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.9310092936953</v>
+        <v>6.231317499999999</v>
       </c>
       <c r="H4">
-        <v>5.9310092936953</v>
+        <v>12.462635</v>
       </c>
       <c r="I4">
-        <v>0.006035667644760753</v>
+        <v>0.005876074078676659</v>
       </c>
       <c r="J4">
-        <v>0.006035667644760753</v>
+        <v>0.003958027426185814</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>26.7776481965349</v>
+        <v>26.823721</v>
       </c>
       <c r="N4">
-        <v>26.7776481965349</v>
+        <v>80.471163</v>
       </c>
       <c r="O4">
-        <v>0.3566077515406694</v>
+        <v>0.3508395563637543</v>
       </c>
       <c r="P4">
-        <v>0.3566077515406694</v>
+        <v>0.371187064584827</v>
       </c>
       <c r="Q4">
-        <v>158.8184803169517</v>
+        <v>167.1471220824175</v>
       </c>
       <c r="R4">
-        <v>158.8184803169517</v>
+        <v>1002.882732494505</v>
       </c>
       <c r="S4">
-        <v>0.0021523658678449</v>
+        <v>0.002061559222923475</v>
       </c>
       <c r="T4">
-        <v>0.0021523658678449</v>
+        <v>0.001469168581872151</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.9310092936953</v>
+        <v>6.231317499999999</v>
       </c>
       <c r="H5">
-        <v>5.9310092936953</v>
+        <v>12.462635</v>
       </c>
       <c r="I5">
-        <v>0.006035667644760753</v>
+        <v>0.005876074078676659</v>
       </c>
       <c r="J5">
-        <v>0.006035667644760753</v>
+        <v>0.003958027426185814</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>22.7170222531036</v>
+        <v>22.88541033333333</v>
       </c>
       <c r="N5">
-        <v>22.7170222531036</v>
+        <v>68.65623099999999</v>
       </c>
       <c r="O5">
-        <v>0.3025309081634334</v>
+        <v>0.2993286132281626</v>
       </c>
       <c r="P5">
-        <v>0.3025309081634334</v>
+        <v>0.3166886608852391</v>
       </c>
       <c r="Q5">
-        <v>134.7348701082404</v>
+        <v>142.6062579047808</v>
       </c>
       <c r="R5">
-        <v>134.7348701082404</v>
+        <v>855.6375474286848</v>
       </c>
       <c r="S5">
-        <v>0.001825976013942122</v>
+        <v>0.001758877105196237</v>
       </c>
       <c r="T5">
-        <v>0.001825976013942122</v>
+        <v>0.001253462405345835</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.9310092936953</v>
+        <v>6.231317499999999</v>
       </c>
       <c r="H6">
-        <v>5.9310092936953</v>
+        <v>12.462635</v>
       </c>
       <c r="I6">
-        <v>0.006035667644760753</v>
+        <v>0.005876074078676659</v>
       </c>
       <c r="J6">
-        <v>0.006035667644760753</v>
+        <v>0.003958027426185814</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.01702321356988</v>
+        <v>7.575090333333333</v>
       </c>
       <c r="N6">
-        <v>7.01702321356988</v>
+        <v>22.725271</v>
       </c>
       <c r="O6">
-        <v>0.09344826895678034</v>
+        <v>0.09907802619785785</v>
       </c>
       <c r="P6">
-        <v>0.09344826895678034</v>
+        <v>0.1048242167742089</v>
       </c>
       <c r="Q6">
-        <v>41.61802989375862</v>
+        <v>47.20279295818082</v>
       </c>
       <c r="R6">
-        <v>41.61802989375862</v>
+        <v>283.216757749085</v>
       </c>
       <c r="S6">
-        <v>0.0005640226934013398</v>
+        <v>0.0005821898215076795</v>
       </c>
       <c r="T6">
-        <v>0.0005640226934013398</v>
+        <v>0.0004148971249207658</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.9310092936953</v>
+        <v>6.231317499999999</v>
       </c>
       <c r="H7">
-        <v>5.9310092936953</v>
+        <v>12.462635</v>
       </c>
       <c r="I7">
-        <v>0.006035667644760753</v>
+        <v>0.005876074078676659</v>
       </c>
       <c r="J7">
-        <v>0.006035667644760753</v>
+        <v>0.003958027426185814</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.59936520618204</v>
+        <v>4.6429995</v>
       </c>
       <c r="N7">
-        <v>4.59936520618204</v>
+        <v>9.285999</v>
       </c>
       <c r="O7">
-        <v>0.06125143151679791</v>
+        <v>0.06072788651422123</v>
       </c>
       <c r="P7">
-        <v>0.06125143151679791</v>
+        <v>0.04283326575692263</v>
       </c>
       <c r="Q7">
-        <v>27.27887778296448</v>
+        <v>28.93200403684125</v>
       </c>
       <c r="R7">
-        <v>27.27887778296448</v>
+        <v>115.728016147365</v>
       </c>
       <c r="S7">
-        <v>0.0003696932834012162</v>
+        <v>0.0003568415597990332</v>
       </c>
       <c r="T7">
-        <v>0.0003696932834012162</v>
+        <v>0.0001695352406190055</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>948.793076381778</v>
+        <v>1014.532837</v>
       </c>
       <c r="H8">
-        <v>948.793076381778</v>
+        <v>3043.598511</v>
       </c>
       <c r="I8">
-        <v>0.9655354407854202</v>
+        <v>0.9566949694766785</v>
       </c>
       <c r="J8">
-        <v>0.9655354407854202</v>
+        <v>0.9666211343617389</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.92619761844537</v>
+        <v>7.930325</v>
       </c>
       <c r="N8">
-        <v>7.92619761844537</v>
+        <v>15.86065</v>
       </c>
       <c r="O8">
-        <v>0.10555607760007</v>
+        <v>0.1037243007717083</v>
       </c>
       <c r="P8">
-        <v>0.10555607760007</v>
+        <v>0.07315997304409949</v>
       </c>
       <c r="Q8">
-        <v>7520.321422414704</v>
+        <v>8045.575120582025</v>
       </c>
       <c r="R8">
-        <v>7520.321422414704</v>
+        <v>48273.45072349215</v>
       </c>
       <c r="S8">
-        <v>0.1019181339131636</v>
+        <v>0.09923251676077934</v>
       </c>
       <c r="T8">
-        <v>0.1019181339131636</v>
+        <v>0.07071797613376168</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>948.793076381778</v>
+        <v>1014.532837</v>
       </c>
       <c r="H9">
-        <v>948.793076381778</v>
+        <v>3043.598511</v>
       </c>
       <c r="I9">
-        <v>0.9655354407854202</v>
+        <v>0.9566949694766785</v>
       </c>
       <c r="J9">
-        <v>0.9655354407854202</v>
+        <v>0.9666211343617389</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.05266536845071</v>
+        <v>6.598259666666666</v>
       </c>
       <c r="N9">
-        <v>6.05266536845071</v>
+        <v>19.794779</v>
       </c>
       <c r="O9">
-        <v>0.08060556222224891</v>
+        <v>0.08630161692429571</v>
       </c>
       <c r="P9">
-        <v>0.08060556222224891</v>
+        <v>0.09130681895470279</v>
       </c>
       <c r="Q9">
-        <v>5742.726995241796</v>
+        <v>6694.151098886008</v>
       </c>
       <c r="R9">
-        <v>5742.726995241796</v>
+        <v>60247.35988997407</v>
       </c>
       <c r="S9">
-        <v>0.07782752705001571</v>
+        <v>0.08256432276917708</v>
       </c>
       <c r="T9">
-        <v>0.07782752705001571</v>
+        <v>0.08825910091295673</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>948.793076381778</v>
+        <v>1014.532837</v>
       </c>
       <c r="H10">
-        <v>948.793076381778</v>
+        <v>3043.598511</v>
       </c>
       <c r="I10">
-        <v>0.9655354407854202</v>
+        <v>0.9566949694766785</v>
       </c>
       <c r="J10">
-        <v>0.9655354407854202</v>
+        <v>0.9666211343617389</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>26.7776481965349</v>
+        <v>26.823721</v>
       </c>
       <c r="N10">
-        <v>26.7776481965349</v>
+        <v>80.471163</v>
       </c>
       <c r="O10">
-        <v>0.3566077515406694</v>
+        <v>0.3508395563637543</v>
       </c>
       <c r="P10">
-        <v>0.3566077515406694</v>
+        <v>0.371187064584827</v>
       </c>
       <c r="Q10">
-        <v>25406.44721065932</v>
+        <v>27213.54576502648</v>
       </c>
       <c r="R10">
-        <v>25406.44721065932</v>
+        <v>244921.9118852383</v>
       </c>
       <c r="S10">
-        <v>0.3443174225713179</v>
+        <v>0.3356464386666334</v>
       </c>
       <c r="T10">
-        <v>0.3443174225713179</v>
+        <v>0.3587972614293896</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>948.793076381778</v>
+        <v>1014.532837</v>
       </c>
       <c r="H11">
-        <v>948.793076381778</v>
+        <v>3043.598511</v>
       </c>
       <c r="I11">
-        <v>0.9655354407854202</v>
+        <v>0.9566949694766785</v>
       </c>
       <c r="J11">
-        <v>0.9655354407854202</v>
+        <v>0.9666211343617389</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>22.7170222531036</v>
+        <v>22.88541033333333</v>
       </c>
       <c r="N11">
-        <v>22.7170222531036</v>
+        <v>68.65623099999999</v>
       </c>
       <c r="O11">
-        <v>0.3025309081634334</v>
+        <v>0.2993286132281626</v>
       </c>
       <c r="P11">
-        <v>0.3025309081634334</v>
+        <v>0.3166886608852391</v>
       </c>
       <c r="Q11">
-        <v>21553.75342975547</v>
+        <v>23218.00027138578</v>
       </c>
       <c r="R11">
-        <v>21553.75342975547</v>
+        <v>208962.002442472</v>
       </c>
       <c r="S11">
-        <v>0.2921043137647941</v>
+        <v>0.2863661784958135</v>
       </c>
       <c r="T11">
-        <v>0.2921043137647941</v>
+        <v>0.3061179526243899</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>948.793076381778</v>
+        <v>1014.532837</v>
       </c>
       <c r="H12">
-        <v>948.793076381778</v>
+        <v>3043.598511</v>
       </c>
       <c r="I12">
-        <v>0.9655354407854202</v>
+        <v>0.9566949694766785</v>
       </c>
       <c r="J12">
-        <v>0.9655354407854202</v>
+        <v>0.9666211343617389</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.01702321356988</v>
+        <v>7.575090333333333</v>
       </c>
       <c r="N12">
-        <v>7.01702321356988</v>
+        <v>22.725271</v>
       </c>
       <c r="O12">
-        <v>0.09344826895678034</v>
+        <v>0.09907802619785785</v>
       </c>
       <c r="P12">
-        <v>0.09344826895678034</v>
+        <v>0.1048242167742089</v>
       </c>
       <c r="Q12">
-        <v>6657.703041845316</v>
+        <v>7685.177886407942</v>
       </c>
       <c r="R12">
-        <v>6657.703041845316</v>
+        <v>69166.60097767148</v>
       </c>
       <c r="S12">
-        <v>0.0902276155578194</v>
+        <v>0.09478744924916918</v>
       </c>
       <c r="T12">
-        <v>0.0902276155578194</v>
+        <v>0.1013253033268666</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>948.793076381778</v>
+        <v>1014.532837</v>
       </c>
       <c r="H13">
-        <v>948.793076381778</v>
+        <v>3043.598511</v>
       </c>
       <c r="I13">
-        <v>0.9655354407854202</v>
+        <v>0.9566949694766785</v>
       </c>
       <c r="J13">
-        <v>0.9655354407854202</v>
+        <v>0.9666211343617389</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.59936520618204</v>
+        <v>4.6429995</v>
       </c>
       <c r="N13">
-        <v>4.59936520618204</v>
+        <v>9.285999</v>
       </c>
       <c r="O13">
-        <v>0.06125143151679791</v>
+        <v>0.06072788651422123</v>
       </c>
       <c r="P13">
-        <v>0.06125143151679791</v>
+        <v>0.04283326575692263</v>
       </c>
       <c r="Q13">
-        <v>4363.845863376769</v>
+        <v>4710.475454924582</v>
       </c>
       <c r="R13">
-        <v>4363.845863376769</v>
+        <v>28262.85272954749</v>
       </c>
       <c r="S13">
-        <v>0.05914042792830945</v>
+        <v>0.05809806353510608</v>
       </c>
       <c r="T13">
-        <v>0.05914042792830945</v>
+        <v>0.04140353993437438</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>1.2971607106701</v>
+        <v>0.3795506666666666</v>
       </c>
       <c r="H14">
-        <v>1.2971607106701</v>
+        <v>1.138652</v>
       </c>
       <c r="I14">
-        <v>0.001320050356314381</v>
+        <v>0.0003579127261521251</v>
       </c>
       <c r="J14">
-        <v>0.001320050356314381</v>
+        <v>0.0003616262407493544</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>7.92619761844537</v>
+        <v>7.930325</v>
       </c>
       <c r="N14">
-        <v>7.92619761844537</v>
+        <v>15.86065</v>
       </c>
       <c r="O14">
-        <v>0.10555607760007</v>
+        <v>0.1037243007717083</v>
       </c>
       <c r="P14">
-        <v>0.10555607760007</v>
+        <v>0.07315997304409949</v>
       </c>
       <c r="Q14">
-        <v>10.28155213565425</v>
+        <v>3.009960140633333</v>
       </c>
       <c r="R14">
-        <v>10.28155213565425</v>
+        <v>18.0597608438</v>
       </c>
       <c r="S14">
-        <v>0.0001393393378471209</v>
+        <v>3.712424725742511E-05</v>
       </c>
       <c r="T14">
-        <v>0.0001393393378471209</v>
+        <v>2.64565660252618E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>1.2971607106701</v>
+        <v>0.3795506666666666</v>
       </c>
       <c r="H15">
-        <v>1.2971607106701</v>
+        <v>1.138652</v>
       </c>
       <c r="I15">
-        <v>0.001320050356314381</v>
+        <v>0.0003579127261521251</v>
       </c>
       <c r="J15">
-        <v>0.001320050356314381</v>
+        <v>0.0003616262407493544</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>6.05266536845071</v>
+        <v>6.598259666666666</v>
       </c>
       <c r="N15">
-        <v>6.05266536845071</v>
+        <v>19.794779</v>
       </c>
       <c r="O15">
-        <v>0.08060556222224891</v>
+        <v>0.08630161692429571</v>
       </c>
       <c r="P15">
-        <v>0.08060556222224891</v>
+        <v>0.09130681895470279</v>
       </c>
       <c r="Q15">
-        <v>7.851279710787826</v>
+        <v>2.504373855323111</v>
       </c>
       <c r="R15">
-        <v>7.851279710787826</v>
+        <v>22.539364697908</v>
       </c>
       <c r="S15">
-        <v>0.0001064034011324007</v>
+        <v>3.088844698471106E-05</v>
       </c>
       <c r="T15">
-        <v>0.0001064034011324007</v>
+        <v>3.301894169337107E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>1.2971607106701</v>
+        <v>0.3795506666666666</v>
       </c>
       <c r="H16">
-        <v>1.2971607106701</v>
+        <v>1.138652</v>
       </c>
       <c r="I16">
-        <v>0.001320050356314381</v>
+        <v>0.0003579127261521251</v>
       </c>
       <c r="J16">
-        <v>0.001320050356314381</v>
+        <v>0.0003616262407493544</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>26.7776481965349</v>
+        <v>26.823721</v>
       </c>
       <c r="N16">
-        <v>26.7776481965349</v>
+        <v>80.471163</v>
       </c>
       <c r="O16">
-        <v>0.3566077515406694</v>
+        <v>0.3508395563637543</v>
       </c>
       <c r="P16">
-        <v>0.3566077515406694</v>
+        <v>0.371187064584827</v>
       </c>
       <c r="Q16">
-        <v>34.73491316469114</v>
+        <v>10.18096118803067</v>
       </c>
       <c r="R16">
-        <v>34.73491316469114</v>
+        <v>91.62865069227601</v>
       </c>
       <c r="S16">
-        <v>0.0004707401894857311</v>
+        <v>0.0001255699420601535</v>
       </c>
       <c r="T16">
-        <v>0.0004707401894857311</v>
+        <v>0.0001342309827805988</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>1.2971607106701</v>
+        <v>0.3795506666666666</v>
       </c>
       <c r="H17">
-        <v>1.2971607106701</v>
+        <v>1.138652</v>
       </c>
       <c r="I17">
-        <v>0.001320050356314381</v>
+        <v>0.0003579127261521251</v>
       </c>
       <c r="J17">
-        <v>0.001320050356314381</v>
+        <v>0.0003616262407493544</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>22.7170222531036</v>
+        <v>22.88541033333333</v>
       </c>
       <c r="N17">
-        <v>22.7170222531036</v>
+        <v>68.65623099999999</v>
       </c>
       <c r="O17">
-        <v>0.3025309081634334</v>
+        <v>0.2993286132281626</v>
       </c>
       <c r="P17">
-        <v>0.3025309081634334</v>
+        <v>0.3166886608852391</v>
       </c>
       <c r="Q17">
-        <v>29.46762873014434</v>
+        <v>8.686172748956887</v>
       </c>
       <c r="R17">
-        <v>29.46762873014434</v>
+        <v>78.17555474061199</v>
       </c>
       <c r="S17">
-        <v>0.0003993560331172536</v>
+        <v>0.0001071335199758267</v>
       </c>
       <c r="T17">
-        <v>0.0003993560331172536</v>
+        <v>0.0001145229299238761</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>1.2971607106701</v>
+        <v>0.3795506666666666</v>
       </c>
       <c r="H18">
-        <v>1.2971607106701</v>
+        <v>1.138652</v>
       </c>
       <c r="I18">
-        <v>0.001320050356314381</v>
+        <v>0.0003579127261521251</v>
       </c>
       <c r="J18">
-        <v>0.001320050356314381</v>
+        <v>0.0003616262407493544</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>7.01702321356988</v>
+        <v>7.575090333333333</v>
       </c>
       <c r="N18">
-        <v>7.01702321356988</v>
+        <v>22.725271</v>
       </c>
       <c r="O18">
-        <v>0.09344826895678034</v>
+        <v>0.09907802619785785</v>
       </c>
       <c r="P18">
-        <v>0.09344826895678034</v>
+        <v>0.1048242167742089</v>
       </c>
       <c r="Q18">
-        <v>9.102206818502895</v>
+        <v>2.875130586076889</v>
       </c>
       <c r="R18">
-        <v>9.102206818502895</v>
+        <v>25.876175274692</v>
       </c>
       <c r="S18">
-        <v>0.00012335642073336</v>
+        <v>3.546128645824698E-05</v>
       </c>
       <c r="T18">
-        <v>0.00012335642073336</v>
+        <v>3.790718745155257E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>1.2971607106701</v>
+        <v>0.3795506666666666</v>
       </c>
       <c r="H19">
-        <v>1.2971607106701</v>
+        <v>1.138652</v>
       </c>
       <c r="I19">
-        <v>0.001320050356314381</v>
+        <v>0.0003579127261521251</v>
       </c>
       <c r="J19">
-        <v>0.001320050356314381</v>
+        <v>0.0003616262407493544</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>4.59936520618204</v>
+        <v>4.6429995</v>
       </c>
       <c r="N19">
-        <v>4.59936520618204</v>
+        <v>9.285999</v>
       </c>
       <c r="O19">
-        <v>0.06125143151679791</v>
+        <v>0.06072788651422123</v>
       </c>
       <c r="P19">
-        <v>0.06125143151679791</v>
+        <v>0.04283326575692263</v>
       </c>
       <c r="Q19">
-        <v>5.966115839482426</v>
+        <v>1.762253555558</v>
       </c>
       <c r="R19">
-        <v>5.966115839482426</v>
+        <v>10.573521333348</v>
       </c>
       <c r="S19">
-        <v>8.085497399851502E-05</v>
+        <v>2.17352834157618E-05</v>
       </c>
       <c r="T19">
-        <v>8.085497399851502E-05</v>
+        <v>1.548963287469398E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>9.98862028492257</v>
+        <v>1.363916666666666</v>
       </c>
       <c r="H20">
-        <v>9.98862028492257</v>
+        <v>4.091749999999999</v>
       </c>
       <c r="I20">
-        <v>0.0101648790760781</v>
+        <v>0.001286160650693063</v>
       </c>
       <c r="J20">
-        <v>0.0101648790760781</v>
+        <v>0.001299505178567438</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>7.92619761844537</v>
+        <v>7.930325</v>
       </c>
       <c r="N20">
-        <v>7.92619761844537</v>
+        <v>15.86065</v>
       </c>
       <c r="O20">
-        <v>0.10555607760007</v>
+        <v>0.1037243007717083</v>
       </c>
       <c r="P20">
-        <v>0.10555607760007</v>
+        <v>0.07315997304409949</v>
       </c>
       <c r="Q20">
-        <v>79.17177831390839</v>
+        <v>10.81630243958333</v>
       </c>
       <c r="R20">
-        <v>79.17177831390839</v>
+        <v>64.89781463749999</v>
       </c>
       <c r="S20">
-        <v>0.001072964764549827</v>
+        <v>0.0001334061141732234</v>
       </c>
       <c r="T20">
-        <v>0.001072964764549827</v>
+        <v>9.507176383466148E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>9.98862028492257</v>
+        <v>1.363916666666666</v>
       </c>
       <c r="H21">
-        <v>9.98862028492257</v>
+        <v>4.091749999999999</v>
       </c>
       <c r="I21">
-        <v>0.0101648790760781</v>
+        <v>0.001286160650693063</v>
       </c>
       <c r="J21">
-        <v>0.0101648790760781</v>
+        <v>0.001299505178567438</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>6.05266536845071</v>
+        <v>6.598259666666666</v>
       </c>
       <c r="N21">
-        <v>6.05266536845071</v>
+        <v>19.794779</v>
       </c>
       <c r="O21">
-        <v>0.08060556222224891</v>
+        <v>0.08630161692429571</v>
       </c>
       <c r="P21">
-        <v>0.08060556222224891</v>
+        <v>0.09130681895470279</v>
       </c>
       <c r="Q21">
-        <v>60.4577760771551</v>
+        <v>8.999476330361109</v>
       </c>
       <c r="R21">
-        <v>60.4577760771551</v>
+        <v>80.99528697324997</v>
       </c>
       <c r="S21">
-        <v>0.0008193457928484492</v>
+        <v>0.0001109977437792156</v>
       </c>
       <c r="T21">
-        <v>0.0008193457928484492</v>
+        <v>0.0001186536840701558</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>9.98862028492257</v>
+        <v>1.363916666666666</v>
       </c>
       <c r="H22">
-        <v>9.98862028492257</v>
+        <v>4.091749999999999</v>
       </c>
       <c r="I22">
-        <v>0.0101648790760781</v>
+        <v>0.001286160650693063</v>
       </c>
       <c r="J22">
-        <v>0.0101648790760781</v>
+        <v>0.001299505178567438</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>26.7776481965349</v>
+        <v>26.823721</v>
       </c>
       <c r="N22">
-        <v>26.7776481965349</v>
+        <v>80.471163</v>
       </c>
       <c r="O22">
-        <v>0.3566077515406694</v>
+        <v>0.3508395563637543</v>
       </c>
       <c r="P22">
-        <v>0.3566077515406694</v>
+        <v>0.371187064584827</v>
       </c>
       <c r="Q22">
-        <v>267.4717599584288</v>
+        <v>36.58532013391667</v>
       </c>
       <c r="R22">
-        <v>267.4717599584288</v>
+        <v>329.26788120525</v>
       </c>
       <c r="S22">
-        <v>0.003624874672003008</v>
+        <v>0.0004512360321016718</v>
       </c>
       <c r="T22">
-        <v>0.003624874672003008</v>
+        <v>0.0004823595126452289</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>9.98862028492257</v>
+        <v>1.363916666666666</v>
       </c>
       <c r="H23">
-        <v>9.98862028492257</v>
+        <v>4.091749999999999</v>
       </c>
       <c r="I23">
-        <v>0.0101648790760781</v>
+        <v>0.001286160650693063</v>
       </c>
       <c r="J23">
-        <v>0.0101648790760781</v>
+        <v>0.001299505178567438</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>22.7170222531036</v>
+        <v>22.88541033333333</v>
       </c>
       <c r="N23">
-        <v>22.7170222531036</v>
+        <v>68.65623099999999</v>
       </c>
       <c r="O23">
-        <v>0.3025309081634334</v>
+        <v>0.2993286132281626</v>
       </c>
       <c r="P23">
-        <v>0.3025309081634334</v>
+        <v>0.3166886608852391</v>
       </c>
       <c r="Q23">
-        <v>226.911709290388</v>
+        <v>31.21379257713888</v>
       </c>
       <c r="R23">
-        <v>226.911709290388</v>
+        <v>280.9241331942499</v>
       </c>
       <c r="S23">
-        <v>0.003075190098257389</v>
+        <v>0.0003849846839605858</v>
       </c>
       <c r="T23">
-        <v>0.003075190098257389</v>
+        <v>0.0004115385548139555</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>9.98862028492257</v>
+        <v>1.363916666666666</v>
       </c>
       <c r="H24">
-        <v>9.98862028492257</v>
+        <v>4.091749999999999</v>
       </c>
       <c r="I24">
-        <v>0.0101648790760781</v>
+        <v>0.001286160650693063</v>
       </c>
       <c r="J24">
-        <v>0.0101648790760781</v>
+        <v>0.001299505178567438</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>7.01702321356988</v>
+        <v>7.575090333333333</v>
       </c>
       <c r="N24">
-        <v>7.01702321356988</v>
+        <v>22.725271</v>
       </c>
       <c r="O24">
-        <v>0.09344826895678034</v>
+        <v>0.09907802619785785</v>
       </c>
       <c r="P24">
-        <v>0.09344826895678034</v>
+        <v>0.1048242167742089</v>
       </c>
       <c r="Q24">
-        <v>70.09038041083666</v>
+        <v>10.33179195713889</v>
       </c>
       <c r="R24">
-        <v>70.09038041083666</v>
+        <v>92.98612761424998</v>
       </c>
       <c r="S24">
-        <v>0.000949890353814495</v>
+        <v>0.0001274302586440212</v>
       </c>
       <c r="T24">
-        <v>0.000949890353814495</v>
+        <v>0.0001362196125373602</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,61 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>9.98862028492257</v>
+        <v>1.363916666666666</v>
       </c>
       <c r="H25">
-        <v>9.98862028492257</v>
+        <v>4.091749999999999</v>
       </c>
       <c r="I25">
-        <v>0.0101648790760781</v>
+        <v>0.001286160650693063</v>
       </c>
       <c r="J25">
-        <v>0.0101648790760781</v>
+        <v>0.001299505178567438</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>4.59936520618204</v>
+        <v>4.6429995</v>
       </c>
       <c r="N25">
-        <v>4.59936520618204</v>
+        <v>9.285999</v>
       </c>
       <c r="O25">
-        <v>0.06125143151679791</v>
+        <v>0.06072788651422123</v>
       </c>
       <c r="P25">
-        <v>0.06125143151679791</v>
+        <v>0.04283326575692263</v>
       </c>
       <c r="Q25">
-        <v>45.941312596237</v>
+        <v>6.332664401374999</v>
       </c>
       <c r="R25">
-        <v>45.941312596237</v>
+        <v>37.99598640825</v>
       </c>
       <c r="S25">
-        <v>0.0006226133946049297</v>
+        <v>7.810581803434527E-05</v>
       </c>
       <c r="T25">
-        <v>0.0006226133946049297</v>
+        <v>5.566205066607628E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,61 +2016,61 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>16.6501541873884</v>
+        <v>11.51036533333333</v>
       </c>
       <c r="H26">
-        <v>16.6501541873884</v>
+        <v>34.531096</v>
       </c>
       <c r="I26">
-        <v>0.01694396213742651</v>
+        <v>0.01085416677473077</v>
       </c>
       <c r="J26">
-        <v>0.01694396213742651</v>
+        <v>0.0109667839124114</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>7.92619761844537</v>
+        <v>7.930325</v>
       </c>
       <c r="N26">
-        <v>7.92619761844537</v>
+        <v>15.86065</v>
       </c>
       <c r="O26">
-        <v>0.10555607760007</v>
+        <v>0.1037243007717083</v>
       </c>
       <c r="P26">
-        <v>0.10555607760007</v>
+        <v>0.07315997304409949</v>
       </c>
       <c r="Q26">
-        <v>131.9724124668261</v>
+        <v>91.28093796206666</v>
       </c>
       <c r="R26">
-        <v>131.9724124668261</v>
+        <v>547.6856277723999</v>
       </c>
       <c r="S26">
-        <v>0.001788538182230841</v>
+        <v>0.001125840859168458</v>
       </c>
       <c r="T26">
-        <v>0.001788538182230841</v>
+        <v>0.0008023296154124821</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,61 +2078,61 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>16.6501541873884</v>
+        <v>11.51036533333333</v>
       </c>
       <c r="H27">
-        <v>16.6501541873884</v>
+        <v>34.531096</v>
       </c>
       <c r="I27">
-        <v>0.01694396213742651</v>
+        <v>0.01085416677473077</v>
       </c>
       <c r="J27">
-        <v>0.01694396213742651</v>
+        <v>0.0109667839124114</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>6.05266536845071</v>
+        <v>6.598259666666666</v>
       </c>
       <c r="N27">
-        <v>6.05266536845071</v>
+        <v>19.794779</v>
       </c>
       <c r="O27">
-        <v>0.08060556222224891</v>
+        <v>0.08630161692429571</v>
       </c>
       <c r="P27">
-        <v>0.08060556222224891</v>
+        <v>0.09130681895470279</v>
       </c>
       <c r="Q27">
-        <v>100.7778116293703</v>
+        <v>75.94837932753155</v>
       </c>
       <c r="R27">
-        <v>100.7778116293703</v>
+        <v>683.5354139477839</v>
       </c>
       <c r="S27">
-        <v>0.001365777594359762</v>
+        <v>0.0009367321430252334</v>
       </c>
       <c r="T27">
-        <v>0.001365777594359762</v>
+        <v>0.001001342153205895</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,61 +2140,61 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>16.6501541873884</v>
+        <v>11.51036533333333</v>
       </c>
       <c r="H28">
-        <v>16.6501541873884</v>
+        <v>34.531096</v>
       </c>
       <c r="I28">
-        <v>0.01694396213742651</v>
+        <v>0.01085416677473077</v>
       </c>
       <c r="J28">
-        <v>0.01694396213742651</v>
+        <v>0.0109667839124114</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>26.7776481965349</v>
+        <v>26.823721</v>
       </c>
       <c r="N28">
-        <v>26.7776481965349</v>
+        <v>80.471163</v>
       </c>
       <c r="O28">
-        <v>0.3566077515406694</v>
+        <v>0.3508395563637543</v>
       </c>
       <c r="P28">
-        <v>0.3566077515406694</v>
+        <v>0.371187064584827</v>
       </c>
       <c r="Q28">
-        <v>445.851971247949</v>
+        <v>308.7508283094053</v>
       </c>
       <c r="R28">
-        <v>445.851971247949</v>
+        <v>2778.757454784648</v>
       </c>
       <c r="S28">
-        <v>0.006042348240017904</v>
+        <v>0.003808071055944746</v>
       </c>
       <c r="T28">
-        <v>0.006042348240017904</v>
+        <v>0.004070728328384093</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,61 +2202,61 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>16.6501541873884</v>
+        <v>11.51036533333333</v>
       </c>
       <c r="H29">
-        <v>16.6501541873884</v>
+        <v>34.531096</v>
       </c>
       <c r="I29">
-        <v>0.01694396213742651</v>
+        <v>0.01085416677473077</v>
       </c>
       <c r="J29">
-        <v>0.01694396213742651</v>
+        <v>0.0109667839124114</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>22.7170222531036</v>
+        <v>22.88541033333333</v>
       </c>
       <c r="N29">
-        <v>22.7170222531036</v>
+        <v>68.65623099999999</v>
       </c>
       <c r="O29">
-        <v>0.3025309081634334</v>
+        <v>0.2993286132281626</v>
       </c>
       <c r="P29">
-        <v>0.3025309081634334</v>
+        <v>0.3166886608852391</v>
       </c>
       <c r="Q29">
-        <v>378.2419231925084</v>
+        <v>263.4194337399084</v>
       </c>
       <c r="R29">
-        <v>378.2419231925084</v>
+        <v>2370.774903659175</v>
       </c>
       <c r="S29">
-        <v>0.005126072253322473</v>
+        <v>0.00324896268842736</v>
       </c>
       <c r="T29">
-        <v>0.005126072253322473</v>
+        <v>0.00347305611143935</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,61 +2264,61 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>16.6501541873884</v>
+        <v>11.51036533333333</v>
       </c>
       <c r="H30">
-        <v>16.6501541873884</v>
+        <v>34.531096</v>
       </c>
       <c r="I30">
-        <v>0.01694396213742651</v>
+        <v>0.01085416677473077</v>
       </c>
       <c r="J30">
-        <v>0.01694396213742651</v>
+        <v>0.0109667839124114</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>7.01702321356988</v>
+        <v>7.575090333333333</v>
       </c>
       <c r="N30">
-        <v>7.01702321356988</v>
+        <v>22.725271</v>
       </c>
       <c r="O30">
-        <v>0.09344826895678034</v>
+        <v>0.09907802619785785</v>
       </c>
       <c r="P30">
-        <v>0.09344826895678034</v>
+        <v>0.1048242167742089</v>
       </c>
       <c r="Q30">
-        <v>116.8345184424221</v>
+        <v>87.19205716966843</v>
       </c>
       <c r="R30">
-        <v>116.8345184424221</v>
+        <v>784.7285145270159</v>
       </c>
       <c r="S30">
-        <v>0.001583383931011736</v>
+        <v>0.001075409420062694</v>
       </c>
       <c r="T30">
-        <v>0.001583383931011736</v>
+        <v>0.001149584534150519</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,61 +2326,433 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>11.51036533333333</v>
+      </c>
+      <c r="H31">
+        <v>34.531096</v>
+      </c>
+      <c r="I31">
+        <v>0.01085416677473077</v>
+      </c>
+      <c r="J31">
+        <v>0.0109667839124114</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>4.6429995</v>
+      </c>
+      <c r="N31">
+        <v>9.285999</v>
+      </c>
+      <c r="O31">
+        <v>0.06072788651422123</v>
+      </c>
+      <c r="P31">
+        <v>0.04283326575692263</v>
+      </c>
+      <c r="Q31">
+        <v>53.442620487484</v>
+      </c>
+      <c r="R31">
+        <v>320.655722924904</v>
+      </c>
+      <c r="S31">
+        <v>0.000659150608102281</v>
+      </c>
+      <c r="T31">
+        <v>0.0004697431698190613</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>26.4379255</v>
+      </c>
+      <c r="H32">
+        <v>52.875851</v>
+      </c>
+      <c r="I32">
+        <v>0.02493071629306879</v>
+      </c>
+      <c r="J32">
+        <v>0.01679292288034711</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>7.930325</v>
+      </c>
+      <c r="N32">
+        <v>15.86065</v>
+      </c>
+      <c r="O32">
+        <v>0.1037243007717083</v>
+      </c>
+      <c r="P32">
+        <v>0.07315997304409949</v>
+      </c>
+      <c r="Q32">
+        <v>209.6613415407875</v>
+      </c>
+      <c r="R32">
+        <v>838.64536616315</v>
+      </c>
+      <c r="S32">
+        <v>0.002585921115236397</v>
+      </c>
+      <c r="T32">
+        <v>0.001228569785257836</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>26.4379255</v>
+      </c>
+      <c r="H33">
+        <v>52.875851</v>
+      </c>
+      <c r="I33">
+        <v>0.02493071629306879</v>
+      </c>
+      <c r="J33">
+        <v>0.01679292288034711</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>6.598259666666666</v>
+      </c>
+      <c r="N33">
+        <v>19.794779</v>
+      </c>
+      <c r="O33">
+        <v>0.08630161692429571</v>
+      </c>
+      <c r="P33">
+        <v>0.09130681895470279</v>
+      </c>
+      <c r="Q33">
+        <v>174.4442974969882</v>
+      </c>
+      <c r="R33">
+        <v>1046.665784981929</v>
+      </c>
+      <c r="S33">
+        <v>0.00215156112717272</v>
+      </c>
+      <c r="T33">
+        <v>0.001533308369156139</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>26.4379255</v>
+      </c>
+      <c r="H34">
+        <v>52.875851</v>
+      </c>
+      <c r="I34">
+        <v>0.02493071629306879</v>
+      </c>
+      <c r="J34">
+        <v>0.01679292288034711</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>26.823721</v>
+      </c>
+      <c r="N34">
+        <v>80.471163</v>
+      </c>
+      <c r="O34">
+        <v>0.3508395563637543</v>
+      </c>
+      <c r="P34">
+        <v>0.371187064584827</v>
+      </c>
+      <c r="Q34">
+        <v>709.1635374307856</v>
+      </c>
+      <c r="R34">
+        <v>4254.981224584713</v>
+      </c>
+      <c r="S34">
+        <v>0.008746681444090876</v>
+      </c>
+      <c r="T34">
+        <v>0.006233315749755421</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>26.4379255</v>
+      </c>
+      <c r="H35">
+        <v>52.875851</v>
+      </c>
+      <c r="I35">
+        <v>0.02493071629306879</v>
+      </c>
+      <c r="J35">
+        <v>0.01679292288034711</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>22.88541033333333</v>
+      </c>
+      <c r="N35">
+        <v>68.65623099999999</v>
+      </c>
+      <c r="O35">
+        <v>0.2993286132281626</v>
+      </c>
+      <c r="P35">
+        <v>0.3166886608852391</v>
+      </c>
+      <c r="Q35">
+        <v>605.0427734295968</v>
+      </c>
+      <c r="R35">
+        <v>3630.256640577581</v>
+      </c>
+      <c r="S35">
+        <v>0.007462476734789039</v>
+      </c>
+      <c r="T35">
+        <v>0.005318128259326218</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>16.6501541873884</v>
-      </c>
-      <c r="H31">
-        <v>16.6501541873884</v>
-      </c>
-      <c r="I31">
-        <v>0.01694396213742651</v>
-      </c>
-      <c r="J31">
-        <v>0.01694396213742651</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>4.59936520618204</v>
-      </c>
-      <c r="N31">
-        <v>4.59936520618204</v>
-      </c>
-      <c r="O31">
-        <v>0.06125143151679791</v>
-      </c>
-      <c r="P31">
-        <v>0.06125143151679791</v>
-      </c>
-      <c r="Q31">
-        <v>76.5801398470404</v>
-      </c>
-      <c r="R31">
-        <v>76.5801398470404</v>
-      </c>
-      <c r="S31">
-        <v>0.001037841936483797</v>
-      </c>
-      <c r="T31">
-        <v>0.001037841936483797</v>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>26.4379255</v>
+      </c>
+      <c r="H36">
+        <v>52.875851</v>
+      </c>
+      <c r="I36">
+        <v>0.02493071629306879</v>
+      </c>
+      <c r="J36">
+        <v>0.01679292288034711</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>7.575090333333333</v>
+      </c>
+      <c r="N36">
+        <v>22.725271</v>
+      </c>
+      <c r="O36">
+        <v>0.09907802619785785</v>
+      </c>
+      <c r="P36">
+        <v>0.1048242167742089</v>
+      </c>
+      <c r="Q36">
+        <v>200.2696738884368</v>
+      </c>
+      <c r="R36">
+        <v>1201.618043330621</v>
+      </c>
+      <c r="S36">
+        <v>0.002470086162016031</v>
+      </c>
+      <c r="T36">
+        <v>0.001760304988282077</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>26.4379255</v>
+      </c>
+      <c r="H37">
+        <v>52.875851</v>
+      </c>
+      <c r="I37">
+        <v>0.02493071629306879</v>
+      </c>
+      <c r="J37">
+        <v>0.01679292288034711</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>4.6429995</v>
+      </c>
+      <c r="N37">
+        <v>9.285999</v>
+      </c>
+      <c r="O37">
+        <v>0.06072788651422123</v>
+      </c>
+      <c r="P37">
+        <v>0.04283326575692263</v>
+      </c>
+      <c r="Q37">
+        <v>122.7512748775373</v>
+      </c>
+      <c r="R37">
+        <v>491.0050995101491</v>
+      </c>
+      <c r="S37">
+        <v>0.001513989709763728</v>
+      </c>
+      <c r="T37">
+        <v>0.0007192957285694142</v>
       </c>
     </row>
   </sheetData>
